--- a/data/trans_orig/P04B3_2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38AFCF16-11D8-43BA-9A8B-5D7684616FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4C39FA-DB36-423A-B517-A072AF985937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76EE5595-1952-40F6-896A-E2374CEC7154}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69536C09-9D16-489B-9A18-65A4E9B670CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el invierno como un problema en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,33%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>A veces</t>
@@ -104,631 +104,634 @@
     <t>12,12%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>6,61%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>Apenas</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>Apenas</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
   </si>
   <si>
     <t>51,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5F0E06-C57E-435E-8015-B5155F95C8A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D47588F-C4DB-4D19-8866-4A2B22F405B0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1796,13 +1799,13 @@
         <v>232283</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>522</v>
@@ -1811,13 +1814,13 @@
         <v>448782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1835,13 @@
         <v>131571</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>212</v>
@@ -1847,13 +1850,13 @@
         <v>160427</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>342</v>
@@ -1862,13 +1865,13 @@
         <v>291998</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1886,13 @@
         <v>194883</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>252</v>
@@ -1898,13 +1901,13 @@
         <v>185042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>421</v>
@@ -1913,13 +1916,13 @@
         <v>379926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1937,13 @@
         <v>496294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>741</v>
@@ -1949,13 +1952,13 @@
         <v>480651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>1192</v>
@@ -1964,13 +1967,13 @@
         <v>976945</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2029,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2041,13 @@
         <v>97372</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -2053,13 +2056,13 @@
         <v>104233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -2068,13 +2071,13 @@
         <v>201605</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2092,13 @@
         <v>104993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -2104,13 +2107,13 @@
         <v>90597</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>240</v>
@@ -2119,13 +2122,13 @@
         <v>195590</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2143,13 @@
         <v>208164</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>287</v>
@@ -2155,13 +2158,13 @@
         <v>201190</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -2170,13 +2173,13 @@
         <v>409354</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2194,13 @@
         <v>318083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>494</v>
@@ -2206,13 +2209,13 @@
         <v>477629</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>788</v>
@@ -2221,13 +2224,13 @@
         <v>795713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,7 +2286,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2295,13 +2298,13 @@
         <v>222927</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>382</v>
@@ -2310,13 +2313,13 @@
         <v>298554</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>625</v>
@@ -2325,13 +2328,13 @@
         <v>521481</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2349,13 @@
         <v>163540</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>241</v>
@@ -2361,13 +2364,13 @@
         <v>175394</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>401</v>
@@ -2376,13 +2379,13 @@
         <v>338935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2400,13 @@
         <v>166464</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>273</v>
@@ -2412,13 +2415,13 @@
         <v>202069</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>455</v>
@@ -2427,13 +2430,13 @@
         <v>368533</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2451,13 @@
         <v>412312</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>664</v>
@@ -2463,13 +2466,13 @@
         <v>473476</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>1084</v>
@@ -2478,13 +2481,13 @@
         <v>885788</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2555,13 @@
         <v>674421</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>984</v>
@@ -2567,13 +2570,13 @@
         <v>748842</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>1672</v>
@@ -2582,13 +2585,13 @@
         <v>1423264</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2606,13 @@
         <v>472852</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>749</v>
@@ -2618,13 +2621,13 @@
         <v>517795</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>1223</v>
@@ -2633,13 +2636,13 @@
         <v>990648</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2657,13 @@
         <v>644826</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>951</v>
@@ -2669,13 +2672,13 @@
         <v>666999</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>1573</v>
@@ -2684,13 +2687,13 @@
         <v>1311825</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2708,13 @@
         <v>1592808</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>2676</v>
@@ -2720,13 +2723,13 @@
         <v>1898609</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>4266</v>
@@ -2735,13 +2738,13 @@
         <v>3491417</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2800,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
